--- a/evaluation/ontology-completeness-pko.xlsx
+++ b/evaluation/ontology-completeness-pko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefriel-my.sharepoint.com/personal/carriero_cefriel_it/Documents/Documents/GitHub/pk-ontology/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857191D2-0372-4857-A36E-644442C4CC89}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425A044F-2A7D-4DD9-BA5F-C2A94B85D1D1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competency Questions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>Identifier</t>
   </si>
@@ -381,6 +381,65 @@
 dct:format ?resourceFormat ; 
 dcat:accessURL ?resourceURL . 
 }  </t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX pro: &lt;http://purl.org/spar/pro/&gt; 
+SELECT *
+WHERE {
+?roleInTime a pro:RoleInTime ;
+dct:relatesTo ?procedure ;
+pro:withRole ?role .
+?procedure a pko:Procedure .
+?agent pro:holdsRoleInTime ?roleInTime .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX pro: &lt;http://purl.org/spar/pro/&gt; 
+SELECT *
+WHERE {
+?roleInTime a pro:RoleInTime ;
+pro:withRole ?role ;
+dct:temporal ?time .
+?agent pro:holdsRoleInTime ?roleInTime .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?stepOrMultistep 
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step .
+?step pko:minRepetitions ?minReps.
+FILTER (?minReps=0)
+}
+###
+PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step .
+?step pko:nextAlternativeStep ?alternativeStep.
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
+SELECT *
+WHERE {
+?procedureVersion a pko:Procedure ;
+pko:isVersionOf ?procedure .}</t>
   </si>
   <si>
     <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
@@ -396,6 +455,66 @@
 dct:format ?resourceFormat ; 
 dcat:accessURL ?resourceURL . 
 }  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt; 
+SELECT * 
+WHERE { 
+?procedure a pko:Procedure ; 
+dct:title ?procedureTitle ; 
+pko:hasProcedureTarget ?target .
+?target dct:references ?resource . 
+?resource dct:title ?resourceTitle ; 
+dct:format ?resourceFormat ; 
+dcat:accessURL ?resourceURL . 
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt; 
+SELECT * 
+WHERE { 
+?resource a dcat:Resource ;
+dct:created ?createdOn
+}  
+###
+PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt; 
+SELECT * 
+WHERE { 
+?resource a dcat:Resource ;
+dct:modified ?modifiedOn
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT * 
+WHERE { 
+?procedure a pko:Procedure ;
+dct:creator ?creator
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt; 
+SELECT * 
+WHERE { 
+?procedure a pko:Procedure ;
+dcat:keyword ?keyword .
+}  </t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step .
+?step pko:isForExpertiseLevel ?expertiseLevel.
+}</t>
   </si>
 </sst>
 </file>
@@ -823,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,7 +979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="175" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="250" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,10 +1020,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="237.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
@@ -926,7 +1045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="187.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="175" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -934,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="175" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -945,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="250" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -956,10 +1075,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="100" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -967,30 +1086,26 @@
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="112.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="100" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1000,21 +1115,19 @@
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="187.5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="100" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1022,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1036,7 +1149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1047,7 +1160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1058,7 +1171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1069,7 +1182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1091,7 +1204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1102,7 +1215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1113,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1124,7 +1237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1135,7 +1248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1146,7 +1259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1157,7 +1270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="150" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1168,7 +1281,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="112.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1179,7 +1292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1190,7 +1303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="200" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1223,7 +1336,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="175" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1234,7 +1347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1245,7 +1358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -1256,7 +1369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="150" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -1267,7 +1380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="150" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
@@ -1289,7 +1402,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
@@ -1300,7 +1413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1311,7 +1424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -1322,7 +1435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="150" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -1333,7 +1446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -1344,7 +1457,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="125" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
@@ -1355,7 +1468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="100" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1366,7 +1479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>

--- a/evaluation/ontology-completeness-pko.xlsx
+++ b/evaluation/ontology-completeness-pko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefriel-my.sharepoint.com/personal/carriero_cefriel_it/Documents/Documents/GitHub/pk-ontology/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425A044F-2A7D-4DD9-BA5F-C2A94B85D1D1}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0125CEB-1622-49E9-B645-AA79DB4807B0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competency Questions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>Identifier</t>
   </si>
@@ -515,6 +515,173 @@
 pko:hasStep ?step .
 ?step pko:isForExpertiseLevel ?expertiseLevel.
 }</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX adms: &lt;http://www.w3.org/ns/adms#&gt;
+SELECT *
+WHERE {
+?procedure a pko:ProcedureExecution ;
+pko:executesProcedure ?procedure ;
+adms:status ?procedureExecutionStatus .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+prov:startedAtTime ?startTime ;
+prov:endedAtTime ?endTime .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:wasConfirmedBy ? agent .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:hasIssueOccurrence ?issue .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step . 
+?step pko:hasExpectedDuration ?expDuration
+}
+###
+PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure .
+?procedure pko:hasExpectedDuration ?expDuration
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:hasIssueOccurrence ?issue .
+?issue pko:issueCauseByUser ?causeByUser .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:hasIssueOccurrence ?issue .
+?issue pko:issueSolutionByUser ?solutionByUser .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+dcat:hasVersion ?procedureVersion .}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+dcat:hasVersion ?procedureVersion .
+?procedureVersion dct:creator ?creator ;
+dct:created ?createdOn.}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:hasUserFeedbackOccurrence ?feedbackOcc .
+?feedbackOcc pko:feedbackOnProcedure ?feedback ;
+pko:wasExecutedBy ?agent .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?procedureExecution a pko:ProcedureExecution ;
+pko:executesProcedure ?procedure ;
+prov:startedAtTime ?startTime ;
+prov:endedAtTime ?endTime .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:wasExecutedBy ?agent .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt; 
+SELECT * 
+WHERE { 
+?procedure a pko:Procedure ; 
+dct:title ?procedureTitle ; 
+pko:wasExtractedFrom ?resource . 
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT * 
+WHERE { 
+?FAQ a pko:FrequentlyAskedQuestion ; 
+pko:hasFAQCategory ?FAQCategory . 
+}  </t>
   </si>
 </sst>
 </file>
@@ -942,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1146,10 +1313,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1157,10 +1324,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -1178,11 +1345,9 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1355,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1200,11 +1365,9 @@
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="225" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1212,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1223,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1234,10 +1397,10 @@
         <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -1245,7 +1408,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -1255,11 +1418,9 @@
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="125" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -1267,10 +1428,10 @@
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="162.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -1278,10 +1439,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="150" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1289,7 +1450,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1299,9 +1460,7 @@
       <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1310,9 +1469,7 @@
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="125" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1325,7 +1482,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1333,10 +1490,10 @@
         <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="125" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1344,10 +1501,10 @@
         <v>71</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1355,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1365,9 +1522,7 @@
       <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -1376,9 +1531,7 @@
       <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -1409,9 +1562,7 @@
       <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">

--- a/evaluation/ontology-completeness-pko.xlsx
+++ b/evaluation/ontology-completeness-pko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefriel-my.sharepoint.com/personal/carriero_cefriel_it/Documents/Documents/GitHub/pk-ontology/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0125CEB-1622-49E9-B645-AA79DB4807B0}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52071CC7-157C-4698-A773-752A6D396ED0}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
   <si>
     <t>Identifier</t>
   </si>
@@ -682,6 +682,52 @@
 ?FAQ a pko:FrequentlyAskedQuestion ; 
 pko:hasFAQCategory ?FAQCategory . 
 }  </t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step .
+?step pko:requiresTool ?tool
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; 
+SELECT *
+WHERE {
+?procedure a pko:Procedure ;
+pko:hasStep ?step .
+?step dct:description ?stepDescription
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
+SELECT *
+WHERE {
+?procedureVersion a pko:Procedure ;
+pko:nextVersion ?procedureVersion .}
+###
+PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
+SELECT *
+WHERE {
+?procedureVersion a pko:Procedure ;
+dcat:previousVersion ?procedureVersion .}</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,7 +1338,9 @@
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="100" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1345,7 +1393,9 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1365,7 +1415,9 @@
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="225" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -1418,7 +1470,9 @@
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="125" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1460,7 +1514,9 @@
       <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1469,7 +1525,9 @@
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="125" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1522,7 +1580,9 @@
       <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -1531,7 +1591,9 @@
       <c r="B40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -1564,7 +1626,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="100" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -1572,7 +1634,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -1582,9 +1644,7 @@
       <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -1593,11 +1653,9 @@
       <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -1605,7 +1663,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -1619,7 +1677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="212.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -1627,10 +1685,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -1638,7 +1696,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">

--- a/evaluation/ontology-completeness-pko.xlsx
+++ b/evaluation/ontology-completeness-pko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cefriel-my.sharepoint.com/personal/carriero_cefriel_it/Documents/Documents/GitHub/pk-ontology/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52071CC7-157C-4698-A773-752A6D396ED0}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{2A748C4F-AC92-4820-AF81-A531339748FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A37A2A-9E59-4A63-B7BD-A16AAF5695D3}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Competency Questions" sheetId="1" r:id="rId1"/>
@@ -704,18 +704,6 @@
   </si>
   <si>
     <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
-PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
-PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
-SELECT *
-WHERE {
-?stepExecution a pko:StepExecution ;
-pko:executesStep ?step .
-?step pplan:isStepOfPlan ?procedure .
-?procedure a pko:Procedure .
-}</t>
-  </si>
-  <si>
-    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
 PREFIX dcat: &lt;http://www.w3.org/ns/dcat#&gt;
 SELECT *
 WHERE {
@@ -728,6 +716,19 @@
 WHERE {
 ?procedureVersion a pko:Procedure ;
 dcat:previousVersion ?procedureVersion .}</t>
+  </si>
+  <si>
+    <t>PREFIX pko: &lt;https://w3id.org/pko#&gt; 
+PREFIX prov: &lt;http://www.w3.org/ns/prov#&gt;
+PREFIX pplan: &lt;http://purl.org/net/p-plan#&gt;
+SELECT *
+WHERE {
+?stepExecution a pko:StepExecution ;
+pko:executesStep ?step ;
+pko:isIncludedInProcedureExecution ?procedureExecution .
+?step pplan:isStepOfPlan ?procedure .
+?procedure a pko:Procedure .
+}</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1157,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,10 +1686,10 @@
         <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="137.5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="150" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
